--- a/outputs-HGR-r202/o__Oscillospirales.xlsx
+++ b/outputs-HGR-r202/o__Oscillospirales.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9098,7 +9098,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>f__QAMX01</t>
+          <t>f__QAMX01(reject)</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -13187,7 +13187,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -13234,7 +13234,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -13281,7 +13281,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14362,7 +14362,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -15114,7 +15114,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -15772,7 +15772,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -16665,7 +16665,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -17088,7 +17088,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>f__UMGS1783</t>
+          <t>f__UMGS1783(reject)</t>
         </is>
       </c>
     </row>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -17652,7 +17652,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -18827,7 +18827,7 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -18874,7 +18874,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -19062,7 +19062,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -19344,7 +19344,7 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19626,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -20096,7 +20096,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -20707,7 +20707,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -21600,7 +21600,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -21647,7 +21647,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -21835,7 +21835,7 @@
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -22305,7 +22305,7 @@
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -22540,7 +22540,7 @@
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -22869,7 +22869,7 @@
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -22916,7 +22916,7 @@
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -23104,7 +23104,7 @@
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -23151,7 +23151,7 @@
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -23339,7 +23339,7 @@
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>f__UBA644</t>
+          <t>f__UBA644(reject)</t>
         </is>
       </c>
     </row>
@@ -23903,7 +23903,7 @@
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -24232,7 +24232,7 @@
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -24467,7 +24467,7 @@
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -24655,7 +24655,7 @@
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -24890,7 +24890,7 @@
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -25172,7 +25172,7 @@
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -25360,7 +25360,7 @@
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -26112,7 +26112,7 @@
       </c>
       <c r="M546" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -26206,7 +26206,7 @@
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -26300,7 +26300,7 @@
       </c>
       <c r="M550" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -26864,7 +26864,7 @@
       </c>
       <c r="M562" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -27569,7 +27569,7 @@
       </c>
       <c r="M577" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       </c>
       <c r="M581" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -28180,7 +28180,7 @@
       </c>
       <c r="M590" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -28227,7 +28227,7 @@
       </c>
       <c r="M591" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -28321,7 +28321,7 @@
       </c>
       <c r="M593" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -28368,7 +28368,7 @@
       </c>
       <c r="M594" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -28462,7 +28462,7 @@
       </c>
       <c r="M596" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="M598" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -28603,7 +28603,7 @@
       </c>
       <c r="M599" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -28650,7 +28650,7 @@
       </c>
       <c r="M600" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -28979,7 +28979,7 @@
       </c>
       <c r="M607" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -29261,7 +29261,7 @@
       </c>
       <c r="M613" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -29449,7 +29449,7 @@
       </c>
       <c r="M617" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -29825,7 +29825,7 @@
       </c>
       <c r="M625" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -30295,7 +30295,7 @@
       </c>
       <c r="M635" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -30436,7 +30436,7 @@
       </c>
       <c r="M638" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -30718,7 +30718,7 @@
       </c>
       <c r="M644" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -30953,7 +30953,7 @@
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -31329,7 +31329,7 @@
       </c>
       <c r="M657" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -31376,7 +31376,7 @@
       </c>
       <c r="M658" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -31517,7 +31517,7 @@
       </c>
       <c r="M661" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -31658,7 +31658,7 @@
       </c>
       <c r="M664" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -31705,7 +31705,7 @@
       </c>
       <c r="M665" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -31752,7 +31752,7 @@
       </c>
       <c r="M666" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -31799,7 +31799,7 @@
       </c>
       <c r="M667" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -31940,7 +31940,7 @@
       </c>
       <c r="M670" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="M678" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -32504,7 +32504,7 @@
       </c>
       <c r="M682" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -32927,7 +32927,7 @@
       </c>
       <c r="M691" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -32974,7 +32974,7 @@
       </c>
       <c r="M692" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -33115,7 +33115,7 @@
       </c>
       <c r="M695" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -33209,7 +33209,7 @@
       </c>
       <c r="M697" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -33256,7 +33256,7 @@
       </c>
       <c r="M698" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -33444,7 +33444,7 @@
       </c>
       <c r="M702" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -33679,7 +33679,7 @@
       </c>
       <c r="M707" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -33820,7 +33820,7 @@
       </c>
       <c r="M710" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -33914,7 +33914,7 @@
       </c>
       <c r="M712" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -34102,7 +34102,7 @@
       </c>
       <c r="M716" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -34243,7 +34243,7 @@
       </c>
       <c r="M719" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -34290,7 +34290,7 @@
       </c>
       <c r="M720" t="inlineStr">
         <is>
-          <t>f__CAG-382</t>
+          <t>f__CAG-382(reject)</t>
         </is>
       </c>
     </row>
@@ -34525,7 +34525,7 @@
       </c>
       <c r="M725" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -34713,7 +34713,7 @@
       </c>
       <c r="M729" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -34901,7 +34901,7 @@
       </c>
       <c r="M733" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -35277,7 +35277,7 @@
       </c>
       <c r="M741" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -35418,7 +35418,7 @@
       </c>
       <c r="M744" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -35512,7 +35512,7 @@
       </c>
       <c r="M746" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -35653,7 +35653,7 @@
       </c>
       <c r="M749" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -36593,7 +36593,7 @@
       </c>
       <c r="M769" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -36640,7 +36640,7 @@
       </c>
       <c r="M770" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -36875,7 +36875,7 @@
       </c>
       <c r="M775" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -36922,7 +36922,7 @@
       </c>
       <c r="M776" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -37016,7 +37016,7 @@
       </c>
       <c r="M778" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -37204,7 +37204,7 @@
       </c>
       <c r="M782" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -37580,7 +37580,7 @@
       </c>
       <c r="M790" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -38708,7 +38708,7 @@
       </c>
       <c r="M814" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -38849,7 +38849,7 @@
       </c>
       <c r="M817" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -39413,7 +39413,7 @@
       </c>
       <c r="M829" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -39460,7 +39460,7 @@
       </c>
       <c r="M830" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -39507,7 +39507,7 @@
       </c>
       <c r="M831" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -40212,7 +40212,7 @@
       </c>
       <c r="M846" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -41011,7 +41011,7 @@
       </c>
       <c r="M863" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -41105,7 +41105,7 @@
       </c>
       <c r="M865" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -41951,7 +41951,7 @@
       </c>
       <c r="M883" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -42092,7 +42092,7 @@
       </c>
       <c r="M886" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -42186,7 +42186,7 @@
       </c>
       <c r="M888" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -42233,7 +42233,7 @@
       </c>
       <c r="M889" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -42280,7 +42280,7 @@
       </c>
       <c r="M890" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -42374,7 +42374,7 @@
       </c>
       <c r="M892" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -42421,7 +42421,7 @@
       </c>
       <c r="M893" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="M894" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -42891,7 +42891,7 @@
       </c>
       <c r="M903" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -42938,7 +42938,7 @@
       </c>
       <c r="M904" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -43032,7 +43032,7 @@
       </c>
       <c r="M906" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -43079,7 +43079,7 @@
       </c>
       <c r="M907" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -43126,7 +43126,7 @@
       </c>
       <c r="M908" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -43220,7 +43220,7 @@
       </c>
       <c r="M910" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -43267,7 +43267,7 @@
       </c>
       <c r="M911" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -43361,7 +43361,7 @@
       </c>
       <c r="M913" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -43408,7 +43408,7 @@
       </c>
       <c r="M914" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -43455,7 +43455,7 @@
       </c>
       <c r="M915" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -43549,7 +43549,7 @@
       </c>
       <c r="M917" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -43596,7 +43596,7 @@
       </c>
       <c r="M918" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -43831,7 +43831,7 @@
       </c>
       <c r="M923" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -43925,7 +43925,7 @@
       </c>
       <c r="M925" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -44019,7 +44019,7 @@
       </c>
       <c r="M927" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -44066,7 +44066,7 @@
       </c>
       <c r="M928" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -44160,7 +44160,7 @@
       </c>
       <c r="M930" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -44442,7 +44442,7 @@
       </c>
       <c r="M936" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -44677,7 +44677,7 @@
       </c>
       <c r="M941" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -44818,7 +44818,7 @@
       </c>
       <c r="M944" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -45053,7 +45053,7 @@
       </c>
       <c r="M949" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -45241,7 +45241,7 @@
       </c>
       <c r="M953" t="inlineStr">
         <is>
-          <t>f__QAMX01</t>
+          <t>f__QAMX01(reject)</t>
         </is>
       </c>
     </row>
@@ -45288,7 +45288,7 @@
       </c>
       <c r="M954" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -45335,7 +45335,7 @@
       </c>
       <c r="M955" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -45429,7 +45429,7 @@
       </c>
       <c r="M957" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -45476,7 +45476,7 @@
       </c>
       <c r="M958" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -45805,7 +45805,7 @@
       </c>
       <c r="M965" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -46416,7 +46416,7 @@
       </c>
       <c r="M978" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -46463,7 +46463,7 @@
       </c>
       <c r="M979" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -46510,7 +46510,7 @@
       </c>
       <c r="M980" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -46604,7 +46604,7 @@
       </c>
       <c r="M982" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -46651,7 +46651,7 @@
       </c>
       <c r="M983" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -46792,7 +46792,7 @@
       </c>
       <c r="M986" t="inlineStr">
         <is>
-          <t>f__Butyricicoccaceae</t>
+          <t>f__Butyricicoccaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -46839,7 +46839,7 @@
       </c>
       <c r="M987" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -47074,7 +47074,7 @@
       </c>
       <c r="M992" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -47450,7 +47450,7 @@
       </c>
       <c r="M1000" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -47497,7 +47497,7 @@
       </c>
       <c r="M1001" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -47685,7 +47685,7 @@
       </c>
       <c r="M1005" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -47920,7 +47920,7 @@
       </c>
       <c r="M1010" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -48014,7 +48014,7 @@
       </c>
       <c r="M1012" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -48155,7 +48155,7 @@
       </c>
       <c r="M1015" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -48343,7 +48343,7 @@
       </c>
       <c r="M1019" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -49189,7 +49189,7 @@
       </c>
       <c r="M1037" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -49847,7 +49847,7 @@
       </c>
       <c r="M1051" t="inlineStr">
         <is>
-          <t>f__CAG-272</t>
+          <t>f__CAG-272(reject)</t>
         </is>
       </c>
     </row>
@@ -50223,7 +50223,7 @@
       </c>
       <c r="M1059" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -50552,7 +50552,7 @@
       </c>
       <c r="M1066" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -50881,7 +50881,7 @@
       </c>
       <c r="M1073" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -51210,7 +51210,7 @@
       </c>
       <c r="M1080" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -51304,7 +51304,7 @@
       </c>
       <c r="M1082" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -51727,7 +51727,7 @@
       </c>
       <c r="M1091" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -51774,7 +51774,7 @@
       </c>
       <c r="M1092" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
